--- a/application/views/rpt/xlsx/TPL_PaymentValidation.xlsx
+++ b/application/views/rpt/xlsx/TPL_PaymentValidation.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -45,24 +50,12 @@
     <t>з іншої сторони, склали цей акт звірки взаєморозрахунків за період з {$v[idate]} за станом на {$v[fdate]}.</t>
   </si>
   <si>
-    <t>{$v[a][company_name]}</t>
-  </si>
-  <si>
-    <t>{$v[p][company_name]}</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Пояснення</t>
   </si>
   <si>
-    <t>Ми, нижчезазначені, представник {$v[a][company_name]}, в особі {$v[user_sign]} з однієї сторони та представник</t>
-  </si>
-  <si>
-    <t>Залишок на користь {$v[a][company_name]}  на  {$v[localDate]}  склав:</t>
-  </si>
-  <si>
     <t>{$v[closing_balance]} грн ({$v[spell]})</t>
   </si>
   <si>
@@ -75,12 +68,6 @@
     <t xml:space="preserve">            Представник</t>
   </si>
   <si>
-    <t>{$v[p][company_name]}, в особі __________________________________</t>
-  </si>
-  <si>
-    <t>Акт звіряння розрахунків з {$v[p][company_name]} від  {$v[localDate]}г.</t>
-  </si>
-  <si>
     <t>{$v[entries][items][loop][i]}</t>
   </si>
   <si>
@@ -97,6 +84,24 @@
   </si>
   <si>
     <t>{$v[entries][items][loop][trans_status]}</t>
+  </si>
+  <si>
+    <t>Акт звіряння розрахунків з {$v[p]-&gt;company_name} від  {$v[localDate]}г.</t>
+  </si>
+  <si>
+    <t>{$v[a]-&gt;company_name}</t>
+  </si>
+  <si>
+    <t>{$v[p]-&gt;company_name}</t>
+  </si>
+  <si>
+    <t>Залишок на користь {$v[a]-&gt;company_name}  на  {$v[localDate]}  склав:</t>
+  </si>
+  <si>
+    <t>Ми, нижчезазначені, представник {$v[a]-&gt;company_name}, в особі {$v[user_sign]} з однієї сторони та представник</t>
+  </si>
+  <si>
+    <t>{$v[p]-&gt;company_name}, в особі __________________________________</t>
   </si>
 </sst>
 </file>
@@ -373,6 +378,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,6 +440,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,7 +738,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,45 +752,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -795,24 +803,24 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="27"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>1</v>
@@ -823,22 +831,22 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -849,20 +857,20 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -873,31 +881,31 @@
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="C15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C17" s="12"/>
@@ -906,12 +914,12 @@
     <row r="18" spans="1:5" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
